--- a/nier/figs/results.xlsx
+++ b/nier/figs/results.xlsx
@@ -20,43 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
-  <si>
-    <t>Internal Mode</t>
-  </si>
-  <si>
-    <t>External Mode</t>
-  </si>
-  <si>
-    <t>Google Compute</t>
-  </si>
-  <si>
-    <t>External: Suspend + Dump</t>
-  </si>
-  <si>
-    <t>Internal: Suspend + Dump Time</t>
-  </si>
-  <si>
-    <t>Internal: Pcopy after suspend</t>
-  </si>
-  <si>
-    <t>Internal: Copy dump file</t>
-  </si>
-  <si>
-    <t>Internal: Undump + Resume</t>
-  </si>
-  <si>
-    <t>External: Pcopy after suspend</t>
-  </si>
-  <si>
-    <t>External: Copy dump file</t>
-  </si>
-  <si>
-    <t>External: Undump + Resume</t>
-  </si>
-  <si>
-    <t>I/O Ops</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Suspend + Dump Time</t>
   </si>
@@ -77,6 +41,18 @@
   </si>
   <si>
     <t>External</t>
+  </si>
+  <si>
+    <t>Internal Mode (Write)</t>
+  </si>
+  <si>
+    <t>External Mode(Read)</t>
+  </si>
+  <si>
+    <t>External Mode (Write)</t>
+  </si>
+  <si>
+    <t>Internal Mode (Read)</t>
   </si>
 </sst>
 </file>
@@ -946,11 +922,11 @@
             </a:ln>
           </c:spPr>
         </c:serLines>
-        <c:axId val="2095414200"/>
-        <c:axId val="2095417176"/>
+        <c:axId val="2085953640"/>
+        <c:axId val="2086692104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095414200"/>
+        <c:axId val="2085953640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,7 +965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095417176"/>
+        <c:crossAx val="2086692104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -997,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095417176"/>
+        <c:axId val="2086692104"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1038,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095414200"/>
+        <c:crossAx val="2085953640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,9 +1091,6 @@
               <c:f>Sheet1!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Internal: Suspend + Dump Time</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1132,28 +1105,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,30 +1182,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-0.537602002101044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.468521082957745</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.455931955649724</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.431798275933005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.431798275933005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.356547323513812</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.481486060122112</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.468521082957745</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1200,9 +1194,6 @@
               <c:f>Sheet1!$M$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Internal: Pcopy after suspend</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1214,28 +1205,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,30 +1282,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-0.508638306165727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.119186407719209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0791812460476248</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.155336037465062</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.510545010206612</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.801403710017355</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.435047641339964</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.871222556759707</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1282,9 +1294,6 @@
               <c:f>Sheet1!$N$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Internal: Copy dump file</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1296,28 +1305,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,30 +1382,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-0.468521082957745</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.42021640338319</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.42021640338319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.42021640338319</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.408935392973501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.397940008672037</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.387216143280264</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.397940008672037</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1364,9 +1394,6 @@
               <c:f>Sheet1!$O$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Internal: Undump + Resume</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1378,28 +1405,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,30 +1482,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>-0.161150909262745</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00860017176191757</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.100370545117563</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0374264979406237</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.00432137378264258</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.0253058652647703</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.0555173278498314</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.0457574905606751</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1446,9 +1494,6 @@
               <c:f>Sheet1!$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>External: Suspend + Dump</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1460,28 +1505,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,30 +1582,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.677780705266081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.677780705266081</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.698970004336019</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.698970004336019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.677780705266081</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.638272163982407</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.698970004336019</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1528,9 +1594,6 @@
               <c:f>Sheet1!$Q$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>External: Pcopy after suspend</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1542,28 +1605,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,30 +1682,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>-0.356547323513812</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0899051114393979</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.217483944213906</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.492760389026837</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.929929560084588</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.760271660542063</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.338416648246358</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.647715410691554</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1610,9 +1694,6 @@
               <c:f>Sheet1!$R$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>External: Copy dump file</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1624,28 +1705,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,30 +1782,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>-0.552841968657781</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.0757207139381183</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.130768280269024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.136677139879544</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.136677139879544</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.136677139879544</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.130768280269024</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.136677139879544</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1692,9 +1794,6 @@
               <c:f>Sheet1!$S$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>External: Undump + Resume</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1706,28 +1805,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000.0</c:v>
+                  <c:v>3.189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16000.0</c:v>
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100000.0</c:v>
+                  <c:v>8.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>250000.0</c:v>
+                  <c:v>28.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500000.0</c:v>
+                  <c:v>75.98000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>446.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,30 +1882,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>-0.0757207139381183</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.184691430817599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.0132282657337552</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.198657086954423</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.178976947293169</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.130333768495006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.173186268412274</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.220108088040055</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1776,11 +1896,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="2095526376"/>
-        <c:axId val="2095529352"/>
+        <c:axId val="2086007560"/>
+        <c:axId val="2086013336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095526376"/>
+        <c:axId val="2086007560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,14 +1927,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2095529352"/>
+        <c:crossAx val="2086013336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1822,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095529352"/>
+        <c:axId val="2086013336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,14 +1981,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095526376"/>
+        <c:crossAx val="2086007560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1881,6 +1999,455 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internal Mode (Write)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>External Mode (Write)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>446.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internal Mode (Read)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>External Mode(Read)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2091156888"/>
+        <c:axId val="2038113880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091156888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2038113880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2038113880"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091156888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
@@ -1910,16 +2477,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1963,6 +2530,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2293,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S37"/>
+  <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2306,161 +2903,182 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:11">
       <c r="C2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
         <v>1.65</v>
       </c>
+      <c r="D3">
+        <v>1.66</v>
+      </c>
+      <c r="E3">
+        <v>1.62</v>
+      </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>1000</v>
       </c>
       <c r="C4">
         <v>2.52</v>
       </c>
+      <c r="D4">
+        <v>3.81</v>
+      </c>
+      <c r="E4">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
         <v>3.2</v>
       </c>
+      <c r="D5">
+        <v>3.57</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>4000</v>
       </c>
       <c r="C6">
         <v>3.27</v>
       </c>
+      <c r="D6">
+        <v>5.62</v>
+      </c>
+      <c r="E6">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>16000</v>
       </c>
       <c r="C7">
         <v>5.0999999999999996</v>
       </c>
+      <c r="D7">
+        <v>10.95</v>
+      </c>
+      <c r="E7">
+        <v>1.67</v>
+      </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>100000</v>
       </c>
       <c r="C8">
         <v>8.24</v>
       </c>
+      <c r="D8">
+        <v>59.87</v>
+      </c>
+      <c r="E8">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>500000</v>
       </c>
       <c r="C9">
         <v>75.98</v>
       </c>
+      <c r="D9">
+        <v>446.93</v>
+      </c>
+      <c r="E9">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>1000000</v>
       </c>
       <c r="C10">
         <v>200</v>
       </c>
+      <c r="E10">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:11">
       <c r="C13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:11">
       <c r="C14" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>0</v>
       </c>
@@ -2478,26 +3096,11 @@
         <v>0.69</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>LOG(C15,10)</f>
-        <v>-0.53760200210104392</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15:S30" si="0">LOG(D15,10)</f>
-        <v>-0.50863830616572725</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>-0.46852108295774475</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>-0.1611509092627447</v>
+        <f>SUM(C15:J15)</f>
+        <v>1.63</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:11">
       <c r="G16">
         <v>0.1</v>
       </c>
@@ -2510,28 +3113,18 @@
       <c r="J16">
         <v>0.84</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="P16">
+      <c r="K16" s="1">
+        <f t="shared" ref="K16:K37" si="0">SUM(C16:J16)</f>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>-0.99999999999999978</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>-0.35654732351381252</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>-0.55284196865778068</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>-7.5720713938118356E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>1000</v>
       </c>
@@ -2548,26 +3141,11 @@
         <v>1.02</v>
       </c>
       <c r="K18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18:L36" si="1">LOG(C18,10)</f>
-        <v>-0.46852108295774475</v>
-      </c>
-      <c r="M18">
         <f t="shared" si="0"/>
-        <v>-0.11918640771920865</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>-0.42021640338318977</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>8.6001717619175674E-3</v>
+        <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:11">
       <c r="G19">
         <v>0.21</v>
       </c>
@@ -2580,28 +3158,18 @@
       <c r="J19">
         <v>1.53</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="P19">
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.6777807052660807</v>
-      </c>
-      <c r="Q19">
+        <v>3.8099999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>8.9905111439397917E-2</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>-7.5720713938118356E-2</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>0.18469143081759878</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:19">
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>2000</v>
       </c>
@@ -2618,26 +3186,11 @@
         <v>1.26</v>
       </c>
       <c r="K21" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>-0.45593195564972439</v>
-      </c>
-      <c r="M21">
         <f t="shared" si="0"/>
-        <v>7.9181246047624804E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>-0.42021640338318977</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="0"/>
-        <v>0.1003705451175629</v>
+        <v>3.1899999999999995</v>
       </c>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:11">
       <c r="G22">
         <v>0.21</v>
       </c>
@@ -2650,28 +3203,18 @@
       <c r="J22">
         <v>0.97</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="P22">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.6777807052660807</v>
-      </c>
-      <c r="Q22">
+        <v>3.5699999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>0.21748394421390621</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>-0.13076828026902379</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>-1.3228265733755159E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:19">
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>4000</v>
       </c>
@@ -2688,26 +3231,11 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="K24" s="1">
-        <v>4000</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>-0.43179827593300496</v>
-      </c>
-      <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.15533603746506178</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>-0.42021640338318977</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>3.7426497940623665E-2</v>
+        <v>3.2699999999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:11">
       <c r="G25">
         <v>0.2</v>
       </c>
@@ -2720,28 +3248,18 @@
       <c r="J25">
         <v>1.58</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="P25">
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69897000433601875</v>
-      </c>
-      <c r="Q25">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>0.4927603890268375</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>-0.13667713987954408</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="0"/>
-        <v>0.19865708695442263</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:19">
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>16000</v>
       </c>
@@ -2758,26 +3276,11 @@
         <v>1.01</v>
       </c>
       <c r="K27" s="1">
-        <v>16000</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>-0.43179827593300496</v>
-      </c>
-      <c r="M27">
         <f t="shared" si="0"/>
-        <v>0.51054501020661214</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>-0.40893539297350073</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>4.3213737826425782E-3</v>
+        <v>5.01</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:11">
       <c r="G28">
         <v>0.2</v>
       </c>
@@ -2790,28 +3293,18 @@
       <c r="J28">
         <v>1.51</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="P28">
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>-0.69897000433601875</v>
-      </c>
-      <c r="Q28">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0.92992956008458771</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>-0.13667713987954408</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>0.17897694729316943</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>100000</v>
       </c>
@@ -2828,26 +3321,11 @@
         <v>1.06</v>
       </c>
       <c r="K30" s="1">
-        <v>100000</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>-0.35654732351381252</v>
-      </c>
-      <c r="M30">
         <f t="shared" si="0"/>
-        <v>0.801403710017355</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>-0.39794000867203755</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="0"/>
-        <v>2.5305865264770258E-2</v>
+        <v>8.23</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:11">
       <c r="G31">
         <v>0.21</v>
       </c>
@@ -2860,28 +3338,18 @@
       <c r="J31">
         <v>1.35</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="P31">
-        <f t="shared" ref="P31:P37" si="2">LOG(G31,10)</f>
-        <v>-0.6777807052660807</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ref="Q31:Q37" si="3">LOG(H31,10)</f>
-        <v>1.760271660542063</v>
-      </c>
-      <c r="R31">
-        <f t="shared" ref="R31:R37" si="4">LOG(I31,10)</f>
-        <v>-0.13667713987954408</v>
-      </c>
-      <c r="S31">
-        <f t="shared" ref="S31:S37" si="5">LOG(J31,10)</f>
-        <v>0.13033376849500614</v>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>59.87</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
-      <c r="K32" s="1"/>
+    <row r="32" spans="2:11">
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:11">
       <c r="B33">
         <v>250000</v>
       </c>
@@ -2898,26 +3366,11 @@
         <v>0.88</v>
       </c>
       <c r="K33" s="1">
-        <v>250000</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>-0.48148606012211248</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ref="M33:M36" si="6">LOG(D33,10)</f>
-        <v>1.4350476413399644</v>
-      </c>
-      <c r="N33">
-        <f t="shared" ref="N33:N36" si="7">LOG(E33,10)</f>
-        <v>-0.38721614328026449</v>
-      </c>
-      <c r="O33">
-        <f t="shared" ref="O33:O36" si="8">LOG(F33,10)</f>
-        <v>-5.5517327849831363E-2</v>
+        <f t="shared" si="0"/>
+        <v>28.849999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:11">
       <c r="G34">
         <v>0.23</v>
       </c>
@@ -2930,28 +3383,18 @@
       <c r="J34">
         <v>1.49</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>-0.63827216398240705</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>2.338416648246358</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="4"/>
-        <v>-0.13076828026902379</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="5"/>
-        <v>0.17318626841227402</v>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>220.44</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
-      <c r="K35" s="1"/>
+    <row r="35" spans="2:11">
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:11">
       <c r="B36">
         <v>500000</v>
       </c>
@@ -2968,26 +3411,11 @@
         <v>0.9</v>
       </c>
       <c r="K36" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>-0.46852108295774475</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="6"/>
-        <v>1.8712225567597067</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="7"/>
-        <v>-0.39794000867203755</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="8"/>
-        <v>-4.5757490560675115E-2</v>
+        <f t="shared" si="0"/>
+        <v>75.980000000000018</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:11">
       <c r="G37">
         <v>0.2</v>
       </c>
@@ -3000,22 +3428,9 @@
       <c r="J37">
         <v>1.66</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="P37">
-        <f t="shared" si="2"/>
-        <v>-0.69897000433601875</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="3"/>
-        <v>2.6477154106915544</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="4"/>
-        <v>-0.13667713987954408</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="5"/>
-        <v>0.22010808804005508</v>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>446.93</v>
       </c>
     </row>
   </sheetData>
